--- a/data/hotels_by_city/Dallas/Dallas_shard_369.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="985">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ChrisCgeo</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Not going to lie, I wasn't expecting much when I booked here. The instant I walked in the door, I knew I had misjudged. This place is modern, clean, and the staff is incredibly kind and helpful. Check-in was a breeze. Our room was very nice and I have no complaints. Breakfast was good. They had fresh made pancakes. I just wish they had a waffle maker.More</t>
   </si>
   <si>
+    <t>Sambellla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r541166627-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>I was staying for almost a week on business and immediately had trouble having a wifi signal strong enough to connect to my work VPN.  I asked at the desk to see if there was an issue and we tested a few other rooms and had about the same results, even having trouble in the lobby.  After a couple of days, the connectivity did improve but was still not fast enough compared to other hotel properties.  The room was clean and the location nearby to other restaurants and shopping so that was helpful.  There was no restaurant in the hotel though so with a late evening check in, I had to venture out to have something to eat, which can be a bit intimidating when you are traveling alone.More</t>
   </si>
   <si>
+    <t>alcshells</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r512964180-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>We went to Fort Worth to help our son move.  Holiday Inn Express Hotels are normally nice but this one was below par.   The floor in our room had a definite sloping area towards the wall.  It was in the walking path.   We checked in late and just went to bed as we were really tired.  The next morning we quietly discussed it with the staff.  They admitted knowing about the issue.   We asked to be moved to another room or at least to receive a discount because we had already used towels and sheets.  We had a second night still to stay.   The manager walked up and said she would call me before she left for the day.  She did call me later that day but offered only to give some extra points in the reward program or to give me the best possible rate when we came back on our next trip.   She offered no specific rate.   It is my assumption that they always should give you the best rate they can, so I felt like we were not offered anything.   They said they were aware of the situation and had already contacted the contractor.   This was definitely a trip hazard, especially getting up during the night to use the bathroom without turning on lights.   I will not stay at this hotel on my next trip because of the lack of concern.  I had also requested extra towels...We went to Fort Worth to help our son move.  Holiday Inn Express Hotels are normally nice but this one was below par.   The floor in our room had a definite sloping area towards the wall.  It was in the walking path.   We checked in late and just went to bed as we were really tired.  The next morning we quietly discussed it with the staff.  They admitted knowing about the issue.   We asked to be moved to another room or at least to receive a discount because we had already used towels and sheets.  We had a second night still to stay.   The manager walked up and said she would call me before she left for the day.  She did call me later that day but offered only to give some extra points in the reward program or to give me the best possible rate when we came back on our next trip.   She offered no specific rate.   It is my assumption that they always should give you the best rate they can, so I felt like we were not offered anything.   They said they were aware of the situation and had already contacted the contractor.   This was definitely a trip hazard, especially getting up during the night to use the bathroom without turning on lights.   I will not stay at this hotel on my next trip because of the lack of concern.  I had also requested extra towels but did not get those either.More</t>
   </si>
   <si>
+    <t>Tina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r508775708-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Friendly staff upon checkin. Wasn't ecstatic about not having a fridge, hotel is a bit older and rooms were quaint. My only complaint was the sheets, they were just old and some stray hairs between the two, made me wonder if they were even changed.  lots of restaurants and a mall nearby. We walked to the saltgrass steakhouse, which was Amazing! More</t>
   </si>
   <si>
+    <t>jfitz16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r498346374-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>I do not recommend this hotel at all.My issues with this stay are:1) The second day we were there the hotel lobby flooded and the water was shut off for several hours during the night with no notice or explanation.2) The fire alarm went off later that night with no explanationor evacua tion instructions3) The last night of our stay our truck window was shattered and suitcases were stolen4) no cameras were available for the police to review.We love staying at IHG hotels but we will not be back nor recommend this one to anyone.More</t>
   </si>
   <si>
+    <t>Daniela A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r493402188-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>travel-bag-packed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r492942307-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>Four nights stay, check in  was smooth, simple. Rooms are of usual holiday inn express style. Staff were friendly, several restaurants nearby, walking distance. Breakfast usual holiday inn express, no complaints. Yes I would stay here again.More</t>
   </si>
   <si>
+    <t>BILL C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r487533104-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>At check-in the sheets were dirty and there were a few bugs in the room.  The polite staff was very helpful and got the sheets changed quickly.  However, a few bugs appeared occasionally during the stay.More</t>
   </si>
   <si>
+    <t>Suzanne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r466940739-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>The hotel room was very clean and attractive. Liked that it had a sofa and mini kitchen area.  The staff went out of their way to be friendly and welcoming.  The location is great with lots of convenient dining and shopping.More</t>
   </si>
   <si>
+    <t>4780710jb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r447343767-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -421,6 +451,9 @@
   </si>
   <si>
     <t>Came back and honestly everyone is friendly. Also, I love the cookies that they serve haha. I slept like a baby. Would recommend to anyone. I look forward to coming back. Everything is so clean too. The breakfast could be better but the omelets were delicious.  More</t>
+  </si>
+  <si>
+    <t>Sherry L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r443526510-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
@@ -458,6 +491,9 @@
 Look out ... Someone will steal her from you!! I hope y'all can keep her happy because she...I flew into DFW in order to meet my family for my mother's brain surgery. I was terribly upset not only that my mother was having surgery but my husband had also passed away. I was trying to figure out how to get the mortuary the cremation forms signed &amp; back to the mortuary so that arrangements could be made. Trisha Prellwitz stepped from behind the counter took my phone and did it all for me! I signed the paperwork and Trisha found the fax number and faxed it back for me.Not only was she a big help the day I flew in ... She checked on my mother &amp; I, as well as my father, sister &amp; brother every day she worked. She was a bright spot in each one of my family members days!I don't know who hired that angel but in case you don't realize what a treasure you have ... I will shed some light!Trisha really likes her job. You can tell by the way she interacts with every person that she sees. She is always smiling, happy and helpful. She is competent and more than capable to suceed in any position in the company! Personally I hope she stays right where she is ... She is the best counter person I have ever met! Look out ... Someone will steal her from you!! I hope y'all can keep her happy because she sure keeps your customers happy &amp; coming back. Rest assured when I come back to Texas to see my family ... I WILL STAY HERE!!Warmest Regards,Sherry Larimore-SparnMore</t>
   </si>
   <si>
+    <t>mitones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r436003477-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -482,6 +518,9 @@
     <t>Was booked to stay here two nights for business.  Clean room and comfortable bed, but the air conditioner does not have a steady, stay-on fan.  Sleeping was hard as the a/c would come on loudly for about five minutes to cool the room, then go quiet after it cooled the room to the set temperature.  I was alternately a little too cold when the a/c was working, comfortable for a little while, and then too hot before it started up again.  Not great for a comfortable night's rest.More</t>
   </si>
   <si>
+    <t>kpy72016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r432457168-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -509,6 +548,9 @@
     <t>My husband and I recently stayed at this hotel for a few days while in town for his business.  It's in a convenient location with good restaurants and shops nearby.  Lauren at the front desk was very pleasant and professional in making sure we were well taken care of.  I'm sure we'll stay here again.More</t>
   </si>
   <si>
+    <t>NormaMorris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r432113616-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -536,6 +578,9 @@
     <t>Although we were interested in sight-seeing Fort Worth, and this hotel seemed "way out of town," we found it very convenient to all areas of the city! The hotel is definitely up to Holiday Inn standards - friendly staff, clean facility with quiet rooms, tasty hot breakfast every morning, with the added plus of being much more economical than downtown Fort Worth.  We will definitely stay again when we drive rather than taking AMTRAK.More</t>
   </si>
   <si>
+    <t>Mike P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r430617093-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -590,6 +635,9 @@
     <t>I accidentally reviewed the downtown Holiday Inn but this is the one I went to. Anyways, I arrived late at night. The man who attended me was super sweet and nice. He even said the guy clocking in after him would be there if I needed anything. The room was really nice &amp; clean. I slept like a baby!! There is an IHOP close to the hotel so I went there at 1am haha. I highly recommend this place. In the morning they had delicious breakfast. I've been to other hotels but the staff always has an attitude but this place is a must stay. I look forward to stay again when coming back to Fort Worth from college! Everyone has a positive attitude. Love it. More</t>
   </si>
   <si>
+    <t>Adriana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r368591722-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -617,6 +665,9 @@
     <t>Well, we checked inn, and we got a clean room. There was a problem with a leak in the shower head. We were moved quickly and our new room was amazing. They have a variety of breakfast options. The coffee was good. We will stay here again when I'm in town.More</t>
   </si>
   <si>
+    <t>Eddy O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r361752202-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -641,6 +692,9 @@
     <t>Nice hotel with helpful staff, nice room, and excellent breakfast. The hotel is currently finishing its renovation, so the first floor is in a mess at the moment, but other rooms are fine. A shout-out to Lauren at the front desk who helped clean up glass that was outside near my vehicle. Also to PJ at the front desk who helped out at checkin. My only negative is that the business center was not fully functional so I could not do a simple Word document and the printer was broken. Kudos to the front desk who let me borrow their computer and printer for an urgent need.More</t>
   </si>
   <si>
+    <t>Linda O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r358612111-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -668,6 +722,9 @@
     <t>This is our 2nd time staying in this hotel. Currently the hotel is undergoing renovations, however, it was our experience that this did not interfere with our stay in any manner. Our room was newly painted and very clean and comfortable.  The desk staff had our reservation ready and already knew that we were rewards club members and added our points onto our account immediately.  We did notice that the sink in the bathroom didn't drain very quickly. On the 2nd morning of our stay we brought this to the attention of the front desk clerk. Upon our return to the hotel after lunch, the problem had been corrected. This hotel will continue to be our hotel of choice in the Fort Worth area. More</t>
   </si>
   <si>
+    <t>Tammy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r352632288-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -692,6 +749,9 @@
     <t>We were put in one of the renovated rooms...if this is the best it is going to get, drive an extra half hour and stay at the one in the next town. Beds were comfortable. Nice pillows. Yes, it was clean. The shower sprayed me in the face when I turned the water on. Sprayed the entire bathroom. Couldn't keep the shower head where it was supposed to be. Nowhere to out the soap, shampoo and conditioner. The tv remote kept randomly changing channels...had to remove the batteries. Overall...no thanks. More</t>
   </si>
   <si>
+    <t>Kathy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r349792498-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -719,6 +779,9 @@
     <t>Although the hotel is being renovated, it was very comfortable and the staff was friendly.  Reno is taking place between 9-5pm and was not an issue. My room had already been renovated and it was tastefully done. New colors and theme look great.  Bed very comfortable with all the pillows I needed! Towels were also thick, soft, and white, not that dingy old gray you see with old towels. Location is close to restaurants and mall so there is plenty to chose from for food options and shopping. I like that there is a microwave in the room to reheat some of my leftovers.  The hotel parking was convenient and not an issue.  Breakfast in the morning was fresh with a decent selection of hot and cold items. Overall good experience....Would recommend to others! More</t>
   </si>
   <si>
+    <t>Heather K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r338300681-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -746,6 +809,9 @@
     <t>The staff was very friendly and was overwhelming supportive in organizing our weekend. We had several friends and family traveling from other countries so planning the weekend could have been chaotic. The manager helped us stay organized and was very pleasant to work with even though WE were probably not.Thank you Holiday Inn, you made our wedding weekend a great memory that will last forever!!More</t>
   </si>
   <si>
+    <t>Karen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r337048791-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -773,6 +839,9 @@
     <t>We stayed on the fourth (top) floor and the room was great, comfortable and nice upgrades.  The only issue I had was my son had trouble opening the sofa bed as it was band new, and we thought it should have been made up for the evening.Ryan at the front desk was helpful and accommodating and when Hotels.com messed up our reservation, he was able to get us the same room rate for our inconvenience.  I will definitely stay again!More</t>
   </si>
   <si>
+    <t>Ali F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r334972853-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -800,6 +869,9 @@
     <t>I stayed here for a week. The hotel is going through renovation. The hotel is not new but its clean. I think after the renovation is complete this will be much better. The location is great, you can walk up to restaurants, Hulen mall is a few minutes drive away. The staff is very friendly and courteous.More</t>
   </si>
   <si>
+    <t>amyjwest30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r334243406-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -824,6 +896,9 @@
     <t>Everyone was super nice and helpful. The rooms were Very clean!  The beds were comfy and the pillows were big and soft.  The Lobby is new and modern. The breakfast was delicious. Tons of setting.  Close to everything downtown! The parking was very convenient.  I have nothing bad to say about this hotel.  Fabulous! More</t>
   </si>
   <si>
+    <t>SongofSongs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r314976826-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -851,6 +926,9 @@
     <t>Super appreciated our stay at this hotel. The rooms have very high ceilings and are exceptionally quiet. Super comfortable beds. Very clean. Very friendly staff from the front desk clerk to the maids. We left our car windows open slightly and a downpour soaked the driver and passenger seats. The hotel staff gave us a stack of "stained" towels to take with us to soak up the dampness. They also serve hot breakfast -- which was OK -- eggs, sausage, bacon, muffins, cinnamon rolls, etc. Wonderful variety. However we only give an average score to the "quality" of the foods offered.More</t>
   </si>
   <si>
+    <t>Cymru13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r311998851-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -875,6 +953,9 @@
     <t>Stayed for a week recently while on business in the area. Normal sort of Holiday Inn standard, however the room I had was huge.Good welcome, buffet breakfast enough to see you through to lunch. Good internet strength.Good location for the highway without being on top of it. Couple of good place close by for dinner, even one or two close enough to walk to.In the area give it a go.More</t>
   </si>
   <si>
+    <t>mckinck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r311241144-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -899,6 +980,9 @@
     <t>We were in town for a football game at TCU. The location was on the highway and very close to the campus.  Clean, great beds, and good service.  Breakfast was very good.  They only put two sets of towels in the double room, so ask for more if you need them.  Staff was very professional.  Gave good suggestions for restaurants nearby.  Would absolutely recommend this hotel.More</t>
   </si>
   <si>
+    <t>Jeff R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r310567333-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1007,9 @@
     <t>We were in town for the Rangers on Saturday night and the Cowboys on Sunday night.  Everything in Arlingtion was booked so we chose this very nice property.  Great beds, very comfortable pillows and an outstanding and friendly staff.  Will use again!More</t>
   </si>
   <si>
+    <t>JKF100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r305100297-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1034,9 @@
     <t>Close to TCU university. Easy to get to, clean, friendly and free breakfast. Parking is tight, but they have more spaces across the street. Close to downtown-without the traffic. It was quiet enough, but because it is in-expensive, you tend to get large groups staying there. Usually large groups are noisy!More</t>
   </si>
   <si>
+    <t>Darleen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r301574451-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1061,9 @@
     <t>This was our 2nd stay at this hotel.  It is right off I820 which makes it easy to find and get around since there is shopping and restaurants right across the highway from it.  It is clean and comfortable.  Our room was very clean and the bedding was great.  It was just right for our visit to that area.More</t>
   </si>
   <si>
+    <t>Daphne R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r295763822-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1088,9 @@
     <t>Wonderful staff as always. Super clean rooms and hotel. The hot tub was nasty looking and not working. I don't know why they even left water in it. The bathroom was tiny and the toilet ran all the time. The one thing that I disliked the most was our room was missing our refrigerator. :( They also turned our a/c completely off every time we left. It was miserable until it cooled off again. They were not stingy with towels like most hotels are. Would stay again with hopes the problems wouldn't exist next visit. More</t>
   </si>
   <si>
+    <t>scott v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r285051536-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1019,6 +1115,9 @@
     <t>Friendly staff, clean rooms, and of course decent breakfast. Close to Texas Motor Speedway. Can't really see a reason for staying at this particular HI except that it's close to track. But, it is a nice hotelMore</t>
   </si>
   <si>
+    <t>Matty C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r282260034-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1046,6 +1145,9 @@
     <t>The overnight stay was very nice!  The room was clean and bed comfortable.  Morning workout in gym was great due to excellent machines!  Not to mention our breakfast that was warm and appetizing!  The place was quite and very nice all around.  No one bothered us about checking out early.  More</t>
   </si>
   <si>
+    <t>disgrace2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r274997437-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1175,9 @@
     <t>From our stay this place we, Our room was Ŕob twice in the  same day while we were out with friends the maintenance key was use to enter the room a lot  of our property was stolen things we brought from home and things we bought in Texas for souvenirs.And to this day no one corporate management or whoever owns these places has not try to help  us resolve the situation. Just a warning stay away.More</t>
   </si>
   <si>
+    <t>Shawn R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r274547456-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1205,9 @@
     <t>Good clean hotel among lots of shopping and eating places.  Hotel was clean, quiet and comfortable.  I would give this hotel an "excellent" rating except I found the hotel hard to find and get to at first.  Also, the pool and hot tub was shut down for maintenance for a day or two.More</t>
   </si>
   <si>
+    <t>Anne_66_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r274070339-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1250,9 @@
     <t>One of the nicest Holiday Inn Expresses we've stayed in. Large, clean room with refrigerator, microwave, couch and chairs. All amenities anyone could possibly need during their stay. Very convenient location. Plenty of dining and entertainment options within a very short distance.More</t>
   </si>
   <si>
+    <t>danarbrad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r266510381-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1280,9 @@
     <t>In the last 3 months I have stayed at 3 different HI Express hotels, including this one, in the Dallas /Ft. Worth area.  I have been extremely pleased with the first two. However, this one just did not live up to my expectations.  The bathroom just did not seem clean. The floor was sticky and the sink was cracked. The room just had a funny smell to it as well.  The front desk staff were very friendly and efficient. All in all, only 2 stars.More</t>
   </si>
   <si>
+    <t>bullwalk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r263691134-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1310,9 @@
     <t>I travel to Fort Worth three or four times a year.  I always stay in the City View area of southwest Fort Worth.  I have stayed at the Homewood Suites, Hyatt Place, and Courtyard hotels ib this area.  This trip I decided to stay at the Holiday Inn Express.  I am a Priority Club member and have stayed at very good HI Express hotels throughout the USA and Europe.Most everything about this HI Express was fine - congenial staff, clean and comfortable rooms, and a very good breakfast.  The internet, though, was awful.  When I travel I stay at places where I am confident I will have a good bed, good shower, and reliable internet.  This HI Express failed in this last area.  Often I could not log on.  If I got on the internet, I was continually kicked off or dropped.  When I called the front desk I was told that the router would be re-set, but nothing changed.  One employee told me that the routers were old and out-dated; they needed to be upgraded.I can recommend this HI Express to travelers who do not need the internet.  For those who need a reliable internet connection, I advise staying somewhere else.  I certainly will.More</t>
   </si>
   <si>
+    <t>419judithp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r258821160-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1337,9 @@
     <t>Rooms were clean. Bed comfortable.  Had refrig and micro too. Desk staff welcoming with fresh hot cookies. Breakfast free and good. Many choices.  No complaints at all. Would recommend this location. Easy on off from freeway. Rooms quiet. More</t>
   </si>
   <si>
+    <t>ROBERTO C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r257669389-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1358,9 @@
     <t>Chris and Andy were very hospitable, I defenitely recommend this location. Anytime I'm in Ft Worth I will surely stay here. Many choices near by for food, entertainment and shopping. Easy access to main roads.More</t>
   </si>
   <si>
+    <t>leavinATL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r257498191-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1379,9 @@
     <t>This hotel was great for the quick overnight trip we needed to visit TCU.  The location was great as well as the customer service.  It was clean and the rooms and beds were comfortable.  Free breakfast was adequate.  Enjoyed the free wi-fi.More</t>
   </si>
   <si>
+    <t>Nicnak55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r256836840-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1277,6 +1403,9 @@
     <t>We are staying at this Holiday Inn Express tonight because of treacherous travel conditions in the area. We actually arrived mid-morning because the roads were icy &amp; not safe to drive. We got the last available room in the hotel &amp; because it was a large, jacuzzi suite, which is one of the more expensive rooms they gave us a discount because of the weather. The staff let us check in early, gave us a discount and provided a roll-away bed &amp; crib for our kids. All the staff has been super helpful. The hotel room is nice, clean, and what I'd expect for the Holiday Inn brand. The lobby is a nice place to lounge as well. Overall, very satisfied.More</t>
   </si>
   <si>
+    <t>tcm_crew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r248345885-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1298,6 +1427,9 @@
     <t>I booked a 4-night stay here via one of those blind 3rd party websites.  After learning I would be staying here, I came to Trip Advisor to check out the reviews.  I was very apprehensive after reading some of the less-than-glowing reviews, so I arrived with considerable trepidation.  I was very relieved to discover that my worry was for naught.  Maybe the hotel was renovated since some of those reviews were written, but I found the property to be very tidy and modern.  The carpet in my room was in excellent condition with no discernible stains, except near the air conditioner.  Hey - condensation happens and those stains are a fact of life with these types of in-wall hotel air conditioning units.  Speaking of heating, it cranked out the heat just fine, and when the shining sun warmed the room up a bit, the A/C selection cooled things right off.  The bedding was clean and very comfortable, and thankfully HI-EXP hasn't resorted to those annoying miniature pillows that are useless.  Each of the two beds had four pillows of varying firmness, with the firmness embroidered on the pillowcase.  I liked the big flatscreen TV, and the Dish TV had a super-broad selection of channels.  It was a huge convenience to have a mini-fridge and microwave!  The bathroom was a bathroom.  You're not going to mistake this place for Trump Towers, but it's listed as a 2-1/2 star and I'd say...I booked a 4-night stay here via one of those blind 3rd party websites.  After learning I would be staying here, I came to Trip Advisor to check out the reviews.  I was very apprehensive after reading some of the less-than-glowing reviews, so I arrived with considerable trepidation.  I was very relieved to discover that my worry was for naught.  Maybe the hotel was renovated since some of those reviews were written, but I found the property to be very tidy and modern.  The carpet in my room was in excellent condition with no discernible stains, except near the air conditioner.  Hey - condensation happens and those stains are a fact of life with these types of in-wall hotel air conditioning units.  Speaking of heating, it cranked out the heat just fine, and when the shining sun warmed the room up a bit, the A/C selection cooled things right off.  The bedding was clean and very comfortable, and thankfully HI-EXP hasn't resorted to those annoying miniature pillows that are useless.  Each of the two beds had four pillows of varying firmness, with the firmness embroidered on the pillowcase.  I liked the big flatscreen TV, and the Dish TV had a super-broad selection of channels.  It was a huge convenience to have a mini-fridge and microwave!  The bathroom was a bathroom.  You're not going to mistake this place for Trump Towers, but it's listed as a 2-1/2 star and I'd say it compares favorably to some 3-star hotels I've seen.  The free breakfast is VERY nice.  Various juices, coffee, bagels, pastries, scrambled eggs one day, cheese omelettes another, cinnamon twirl pastries, turkey sausage, bacon, biscuits, cereal, yogurt - something for everyone.  The one downside was internet connectivity.  I did have to call their help desk three times in four days, and the problem persisted when I checked out.  I mentioned it at check-out, and a manager from the back took the time to come to the desk and let me know that they are aware of the internet issues and are in the process of upgrading the system, which will address the connectivity problem.  It was a minor inconvenience, as I was only using it to check email and some scores from back home.  If a traveler is heavily internet-dependent, such as entering data on the company web portal, this might be a major issue.  Oh, and they also have a business center where I didn't experience any connection problems and was able to print my airline boarding pass on the laser printer.  There are TONS of shopping and dining options very nearby, including Hulen Mall, and the location is smack next to a major east-west interstate.  I got a great deal and very much enjoyed my stay here.  I've stayed at the 2-star hotel adjacent to this property several times, and this 2-1/2 star is FAR SUPERIOR on an order of at least 10.  There's also a 3-star hotel across the street which is nice, but the price they charge is exorbitant. I believe you'll find this hotel to be a very pleasant combination of comfort and affordability.More</t>
   </si>
   <si>
+    <t>Martha G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r244698202-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +1457,9 @@
     <t>Just stayed here on 12/13, the room was run down and dirty, made my skin crawl.  The duvet had stains on the edges, gross.  The tile in the bathroom was loose and sticky, with grout pieces dislodged.  The bathroom sink wouldn't drain. Checked in too late to bother with asking for a different room, and quite frankly I doubt that it would have been any different.  I did get an "I'm sorry" from the desk clerk but will never be back and would not recommend.More</t>
   </si>
   <si>
+    <t>surelyacollectible</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r242520267-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1478,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Teresa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r242162268-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1505,9 @@
     <t>Do not stay here, July 16 2014 our room was robbed a maintenance key was used to enter the twice while we were out with friend. a lot of our items was taken. Yes we made a police report we also ask the GM to make a report and she did not so the det. that we came to talk to her. Then we found out that the person that robbed our room was checked out on our credit card. We have been trying to contact Corp. but all we are getting a run around. We have called several numbers but no responds. and we were locked out of our room so we found new place to stay. plus we did not feel safe. we check in June 28 2014 and they did not have our room and we checked out  7/18/2014. this was really hard on boyfriend he is a bilateral amputee vet. this is hurtful that they do not care..More</t>
   </si>
   <si>
+    <t>GrayWolf85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r239320825-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1385,6 +1526,9 @@
     <t>I had the opportunity to stay here recently and was fairly pleased with my choice of hotels.  It was clean, comfy, fairly quiet and the staff was very kind and helpful.  The room I was in was clean but in the need of a little repair.  There were lots of stains on the carpet, and also mold stains on the ceiling over the shower.  There was also a light bulb out in one of the lamps for the duration of my stay.  Dusting could be a little better (I'm a perfectionist), but all in all it was a good choice of hotels and I would most likely stay there again.  On another note, I think there needs to be a change in policy for all Hotels, not just HIE, but every brand, when it comes to connecting someone to your room (phone calls).  I think they should take the persons name and maybe a message and call the guest with that info.  I think it would be safer.  I had a stranger call my room (connected thru the front desk - I was assured that they did not give out my room number or other info) and it scared me.  I didn't sleep the rest of that night....  So, it's something to consider if there are any CEO's or COO's out there reading this.......More</t>
   </si>
   <si>
+    <t>KayleeTrevor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r238366449-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1400,6 +1544,9 @@
     <t xml:space="preserve">Stayed in this hotel for 3 nights. Very nice staff and very clean rooms. When asked about the room not having a fridge I was upgraded to a suite. I stayed on the top floor and it was really quiet. For those of you that have to sleep with a fan on this is the place for you! </t>
   </si>
   <si>
+    <t>littlebrownhorse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r237770940-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1562,9 @@
     <t xml:space="preserve">This is a clean and pleasant hotel.   Staff was very polite and helpful.   Breakfast area was clean and well stocked.   The room was clean and the bed was awesome.  I would definitely recommend this hotel and will stay here again when I am in the area. </t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r235973776-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1592,9 @@
     <t>We stayed a Sunday night while visiting a sick relative in Fort Worth, Room was very nice, They provided pack n plays for our 3 small kids, Very nice staff, breakfast, quiet place, All was good, We;ll return,More</t>
   </si>
   <si>
+    <t>leahtots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r232133268-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1617,9 @@
   </si>
   <si>
     <t>love everything about this hotel.  Rooms are nice and clean, Get a great night sleep, and quiet room.  hotel staff great.  location is fantastic. But if you want to be on line starting at 4:45 forget it.  It will kick you off.  Staff tries to reset the box, so you might get back on for a few minuets, but then off again.  If you don't need to be on line after work, this is the place to be.  if you do    well.....More</t>
+  </si>
+  <si>
+    <t>FlatowLeach</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r226537446-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
@@ -1497,6 +1653,9 @@
 The room was awful.  For a Queen Suite it was sub-par at best.  I understand we did not make reservation at the Four Seasons or Ritz Carlton, but to call this a suite is ridiculous.  The room was a somewhat large room, but it really was like staying in a motel.  There were no closets, just a bar next to the entrance door.  One of the queen beds was directly against the air conditioner  because they did not space the room out well and so that was the only space for the bed.   There were no plugs next to the bed to plug in your phone, they were all on the desk opposite the beds.  I use my phone...I recently stayed here while visiting family, and honestly I don't know who is giving this place a good review.  We normally stay at the Hyatt Place which is a couple of minutes away,  but they were booked so we decided to stay at the Holiday Inn Express.  Big Mistake.When we first arrived, they were running behind check-in time and rooms were not available.  The poor woman behind the desk seemed completely overwhelmed and had too many things going on for one person to take care of.  They really should have had someone else at the desk  to help her.  If that had been the worst thing about our stay, it would have been fine.  But, unfortunately, it was not.The room was awful.  For a Queen Suite it was sub-par at best.  I understand we did not make reservation at the Four Seasons or Ritz Carlton, but to call this a suite is ridiculous.  The room was a somewhat large room, but it really was like staying in a motel.  There were no closets, just a bar next to the entrance door.  One of the queen beds was directly against the air conditioner  because they did not space the room out well and so that was the only space for the bed.   There were no plugs next to the bed to plug in your phone, they were all on the desk opposite the beds.  I use my phone as an alarm clock and I was in Texas because of a family emergency and having the phone on the opposite side of the room where I was sleeping was inconvenient at best.   The bathroom was ridiculously small, you could hardly move around.  The toilet was about 3 feet from the door, and the sink and the tub were about a foot away on either side of the toilet.  It was not just small, but dirty.  There were hairs in the soap dish and some nasty bug smashed on the floor (sadly I did not take pictures of this).  The tub looked like it had not been cleaned in years because there were black stains on the side of the tub and inside the tub itself. The carpet in the room constantly felt damp and gross.  I left my flip flops on most of the time in the room.  The walls had black scuff marks and dripping drink stains and the curtains had some sort of red smudges throughout.Frankly if we had not prepaid for this hotel we would have checked out after the first night.  Unfortunately, we stupidly prepaid and if we had checked out we would have lost our money and I did not have the funds to pay for two hotel stays.    I would stay far away from this hotel (or more accurately motel). This hotel needs a major overhaul and cleaning.  There is a Courtyard, Hyatt Place and another new hotel nearby that have similar price points and are far superior than this hotel.  Sadly, I did not know about the Courtyard and the new hotel before I booked this one and the Hyatt was already booked.  I will never again stay at this hotel.  There was a plaque on the wall near check-in that said that the hotel was independently owned.  Holiday Inn should seriously consider taking their name off this hotel and frankly the person who independently owns it should be ashamed.More</t>
   </si>
   <si>
+    <t>krisans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r224440149-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1683,9 @@
     <t>We stayed one night at this Holiday Inn Express and had a pretty good stay. We are a family of 4 with a 3 year old and a 1 year old and booked the hotel thru Hotwire. Pros:1. The area seems to be closer to stores and restaurants and very close to the highway. 2. The young lady at the front desk in the evening was very pleasant and made us feel at home. 3. The bed was very comfortable. 4. The breakfast was very good with hot pancakes on the menu and plenty of vegetarian options. 5. The king bed room had lots of space for the kids to play. Cons:1. The bathroom was dark and didn't seem to have enough lighting. 2. There was one roll of toilet paper and 4 tissues. Wonder why they skimp on these. It is an annoyance to go down to get these. 3. They didn't have a high chair and only had a booster which is not safe for a 1 year old. In conclusion this is a good hotel to stay with family if they fix these small things. More</t>
   </si>
   <si>
+    <t>Danielle_jimenez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r208774246-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1549,6 +1711,9 @@
   </si>
   <si>
     <t>Good service and friendly staff. The rooms were a decent size and the beds were comfortable. There was a good selection of channels to watch on TV. The breakfast in the morning doesn't have very many choices, but is decent for being freeMore</t>
+  </si>
+  <si>
+    <t>tslovak</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r208060280-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
@@ -1582,6 +1747,9 @@
 Rooms:  The room was clean, which is the biggest thing for me.  The bed was comfortable and linens nice and white.  Yes, they are going to have to do some repairs in the near future.  I did notice some grout that needed to be redone in the bathroom, and some of the wallpaper is starting to peel away at the corners.  These are not things that will keep me from giving a good review, however they will need to be dealt with sooner rather than later.  The bathroom was clean as well.
 Breakfast:  The breakfast was nice.  Warm options including eggs, sausage, biscuits, sausage gravy, waffles.  Also many breads and pastries, yogurt, cereals, fruit drinks and milk and coffee.  The only downfall, and not a big deal, is that it is a small area, so you can't fit many people around the food area.  You kind of have to weave your way around.  
 Location:  The location was fantastic!  Right by the highway,...My husband and I stayed at this hotel for close proximity to the Colonial Country Club which hosts the Crowne Plaza Invitational.  We arrived early, so couldn't check in until we returned from the tournament.  Front desk was accommodating and allowed us to leave our vehicle as we took a cab to the course.  They used Yellow Cabs and they were very good.  If anyone is going to the tournament it cost us about $17 to get there.Rooms:  The room was clean, which is the biggest thing for me.  The bed was comfortable and linens nice and white.  Yes, they are going to have to do some repairs in the near future.  I did notice some grout that needed to be redone in the bathroom, and some of the wallpaper is starting to peel away at the corners.  These are not things that will keep me from giving a good review, however they will need to be dealt with sooner rather than later.  The bathroom was clean as well.Breakfast:  The breakfast was nice.  Warm options including eggs, sausage, biscuits, sausage gravy, waffles.  Also many breads and pastries, yogurt, cereals, fruit drinks and milk and coffee.  The only downfall, and not a big deal, is that it is a small area, so you can't fit many people around the food area.  You kind of have to weave your way around.  Location:  The location was fantastic!  Right by the highway, and TONS of restaurant choices around!  There is a Target practically next door, and pretty much anything else you would need is right around the corner.  Excellent location.If we are in the area for the tournament again we wouldn't hesitate to stay here.  We booked on priceline and got a rate of about 50% off list price.More</t>
+  </si>
+  <si>
+    <t>Jerry_Bruce</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r197547503-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
@@ -1616,6 +1784,9 @@
 The first night we stayed we had to...First off the toilet handle feel off. Called front desk to get it fixed. The guy put me on hold for over 5 mins so hung the phone up and called back he said he had to put me on hold again because he was busy! So my father law sat on hold for another 10 mins and I went in the bathroom to try fix it. I got it to hold for the night. So I told my father inlaw hang up. The front called back another 10 to 15 mins later saying that no one was here to fix it. I told I got it to  hold for the night.Next the ceiling in the bathroom is peeling and mold on it. The tiles around the toilet is loose. The toilet can be moved side to side.The beds are so old that there is a dip in the middle of it. All three nights we been staying here the kids that are staying here from a bowling team are running the halls and next to us being loud and hitting the walls. And the ones above us sound like they are going to come through the floor. You would think they would quiet down and go to bed since they are bowling in one of there biggest tournaments of the year. And they have to be there by 7am.The first night we stayed we had to have maintenance fix the t.v. Because it didn't work.For the amount it cost to stay here a night this weekend you would think it would be in better condition then it is. Also lot of the plugs your plugin falls out of the wall.We stay all the time at holiday inns express all over the country and this has to be one of the run down one we stayed at. Think god we check out in the morning! Also the wireless internet keeps kicking you off all the time.We are staying in room 228 and in the morning will be having nice chat with the front desk. Hopefully a manager will be here. Can't see paying this amount for a hotel like this!!More</t>
   </si>
   <si>
+    <t>Stacey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r190976468-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1645,6 +1816,9 @@
 This is the email I just sent to the Holiday Inn customer service department via their website:  I checked in on Tuesday January 7.  There was already a company card on file with the hotel, but I presented my personal debit card at check in.  Less than 15 minutes later I noticed the entire amount for the room had been put on my debit card.  I called the front desk and let them know that they held the entire amount of the room on my personal card, and that I needed that charge reversed as I had bills coming out of that account and was concerned about overdraft fees.  The person I talked to said they would take care of it.  On Thursday morning it was still showing up on my personal account so I called the front desk again.  The woman I talked to, Autumn was very rude and told me there was nothing she could do, and that I would have to call my bank.  I asked her to have the manager call me when they got in.  Let me...I have stayed here before and had a good experience.  This time the room was not the greatest - peeling wall paper in the bathroom and what looked like mold on the shower ceiling.  The worst part was a problem I had with customer services and billing.  This is the email I sent customer service detailing what happened: This is the email I just sent to the Holiday Inn customer service department via their website:  I checked in on Tuesday January 7.  There was already a company card on file with the hotel, but I presented my personal debit card at check in.  Less than 15 minutes later I noticed the entire amount for the room had been put on my debit card.  I called the front desk and let them know that they held the entire amount of the room on my personal card, and that I needed that charge reversed as I had bills coming out of that account and was concerned about overdraft fees.  The person I talked to said they would take care of it.  On Thursday morning it was still showing up on my personal account so I called the front desk again.  The woman I talked to, Autumn was very rude and told me there was nothing she could do, and that I would have to call my bank.  I asked her to have the manager call me when they got in.  Let me reiterate - she was very rude about the whole thing.  By 1:00 the manager had still not called me so I called and talked to someone else.  She said the manager was busy - she looked up my account and was very nice.  She said she could take care of it, but would still have the manager call me.  The manager never called.  I called back around 5 pm and the manager said it had been taken care of and it should show up on my bank account.  She apologized for Autumn being rude, but did not seem too concerned about the entire problem.  A WEEK LATER the amount is still not reimbursed to my account and I now have $136 in overdraft fees due to this error.  My secretary called the hotel and asked for receipt for our corporate card and a receipt was sent to her with the last four digits of my credit card on the receipt.  I called AGAIN and asked to talk to a manager.  One was not available.  I AGAIN explained the problem to the person on the phone and she said she would call me back in three minutes.  She never called me back.  Today I called AGAIN - another man answered the phone.  He looked it up and within one minute said he took care of it and would send me a receipt.  If he was able to take care of it in one minute, why was it not taken care of the first time I called 8 days ago!  I have never had this poor of customer service at any hotel in my life.  I have stayed at this hotel several times when I attend trainings at TCU and know they regularly use your hotel.  With so many other options I will suggest they go somewhere else.  I would appreciate in the least a more sincere apology, an explanations of why this took over 8 days to correct when I notified the hotel about this less than 10 minutes after I checked in, and I would like the hotel to compensate me for the overdraft charges I incurred because of your mistakes.More</t>
   </si>
   <si>
+    <t>ctodd-pts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r187824997-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1672,6 +1846,9 @@
     <t>Dawn and Felix and the others at the front desk were wonderful in providing the facilities for our recent business meetings for 6 days, and working alternative arrangements on site when the meeting room was not available due to a known prior booking.  They were constantly striving to make our meetings comfortable and made us feel welcomed.  I highly recommend this facility, and will certainly call on them again.More</t>
   </si>
   <si>
+    <t>13discerning_travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r186637599-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1696,6 +1873,9 @@
     <t>The front desk gal was amazing in making us feel welcome. She could not have been better at her job in any way. The facility was clean and updated. The free internet worked very well. The breakfast was very well done too.More</t>
   </si>
   <si>
+    <t>gogolucky0131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r185718496-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1723,6 +1903,9 @@
     <t>I stayed here a few weekends ago visiting some friends. The hotel was very convenient as it was close to so many restaurants and the mall. The front desk was helpful in providing me directions to the places I wanted to visit. Very pleasant and helpful staff; made me feel very welcome. Had a room on the top floor, at the end of the hallway, that was very quiet and comfortable. Very relaxing stay.More</t>
   </si>
   <si>
+    <t>Keystone_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r185590205-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1747,6 +1930,9 @@
     <t>For my taste, this hotel provides basic, no-frill accommodations; not bad, not great.  I stayed in a first floor, non-suite room, that was basically unremarkable.  Room was clean, a comfortable reading chair was provided (and appreciated), climate control was adequate, hot water for shower was ample; items I expect in any hotel.  Good for those just seeking a place to stay while on business or passing through.  Access to I-20 is excellent.  Several restaurant options in the area including an IHOP very close by for those needing a heartier breakfast than what's offered at the hotel.More</t>
   </si>
   <si>
+    <t>dwright8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r183583381-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1771,6 +1957,9 @@
     <t>i was at the hotel at the start of November.My stay was excellent the the front desk Associate were very nice the breakfast was great.I Didnt Have any issues with the rooms and had a great night sleep. I would stay there again The next time i am In Forth worth More</t>
   </si>
   <si>
+    <t>Gretchen F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r183260438-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1795,6 +1984,9 @@
     <t>Horrible stay.   Our vehicle was broken into during the night along with a couple others.  They broke out the back window's.  No surveillance cameras on the exterior.   We even parked under a light.   Holiday inn didnt even comp a room.  We are award members but will no longer patronize holiday inns.More</t>
   </si>
   <si>
+    <t>petielyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r160665585-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1820,6 +2012,9 @@
   </si>
   <si>
     <t>Started staying at this hotel 5 years ago due to it's proximity to TCU and have never had a bad experience.  Staff was always friendly, rooms clean and the breakfast a great start to the day. This visit however was quite a bit different.  Room was booked last year to attend graduation this weekend - requested the top floor but did not get. The room assigned, though clean, smelled like a disgusting locker room to the point of being caustic. Room was not cleaned twice during the stay and it was not because we were in the room - we left early in the morning returning late each day. The television was a nightmare to turn on even though there was a page of instructions to do so. And finally, at 7 am this morning they ran out of coffee and had no plans to go get any.  Not asking for a lot from a hotel... just a nice clean place to stay with a TV to turn on and a good cup of coffee to get started on the day.More</t>
+  </si>
+  <si>
+    <t>Melissa C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r160328851-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
@@ -1850,6 +2045,9 @@
 The cons: The pool was out of commission. The main reason for staying a second night at the same hotel was so the kids and I could relax poolside. The pool was in the shade all day, so it would've been way too cold this time of year. We arrived a little late &amp; I guess they have some type of volume control that does not allow changing the volume on the TV after a certain time. We couldn't hear it at all over the AC. My husband had to...I usually have fairly good things to say about Holiday Inn Express hotels. First the good: I made a reservation at this hotel for our first night, 05/03/13 and at Candelaria Suites for our second night 05/04/13. Since my husband had business still a few hours away, he suggested that we stay both nights at the same hotel so the kids and I didn't have to travel with him in the car all day. He thought we could spend the day in the pool and relax. Great idea, so I called to cancel the second night and reschedule at the Holiday Inn Express. All of that was taken care of wonderfully. The evening check-in staff was very polite. Our room was clean and quiet (no problems at all with the A\C). Breakfast was ok; standard fare for a continental breakfast. Close to a Super Target, restaurants and businesses along I-20.The cons: The pool was out of commission. The main reason for staying a second night at the same hotel was so the kids and I could relax poolside. The pool was in the shade all day, so it would've been way too cold this time of year. We arrived a little late &amp; I guess they have some type of volume control that does not allow changing the volume on the TV after a certain time. We couldn't hear it at all over the AC. My husband had to get up early the next morning (Saturday 05.04.13) and go take care of the business end of the trip. His shower never heated up (it was 04:30 am). He had to take a cold shower. There was no fridge in the room, so we couldn't go to Supertarget for snacks or bring back leftovers from nearby restaurants. I certainly won't pay extra for something that typically comes standard in other rooms. When my husband got ready to leave, he took his briefcase down to his truck but not his room card. When he went by the service desk, the hostess was chatting with another employee. She didn't acknowledge him. When he tried to get back in, it was still locked for security. The hostess didn't notice him there so he knocked on the glass. She looked at him, then continued to talk for a short period of time before she turned around to walk over to the button that opens the door. Then she turned back around to continue her conversation. She never even said good morning.There were just too many issues with the room. We ended up canceling our second night to stay at a hotel next door. We had a much better experience there and it was only 9.00  more per night. All in all, we did not have a great experience. They did charge me the fee for using priority points for the second night. I am awaiting a response from priority club to see about a refund since the points were not used. I may update on that if the charge is reversed.More</t>
   </si>
   <si>
+    <t>ALTravellor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r159807002-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1874,6 +2072,9 @@
     <t>Another standard Holiday Inn – meets the need just fine but lacking in the finer points.Cons:  The room is dark with a low ceiling and just doesn’t feel comfy.  The AC unit is newer but is of an older style – so, it is loud and doesn’t do a great job cooling the room.  To cool the entire room we had to lower the AC to 65 degrees and then the family member in the bed next to the AC was “freezing” while the rest of the room was of acceptable temperature.  The bathroom is dark and has wallpaper that is starting to peel off of the walls with dark spots on the ceiling.  The tub faucet would not close fully.  The drapes did not close properly allowing outside light to filter into the room at night.Pros:  Staff is friendly.  Low cost.  The linens were clean.  The room was large with a sitting area, two beds, and a kitchenette area (microwave, mini-fridge, sink, counter area).  Beds were OK.  Breakfast was standard Holiday Inn fare.Location:  The hotel is conveniently located next to the freeway, many restaurants, shopping/retail centers, and just a few minutes’ drive from TCU.I would stay here again but admittedly would search for another option before making reservations here again.More</t>
   </si>
   <si>
+    <t>Kim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r159745205-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1892,6 +2093,9 @@
     <t>Booked through Expedia on search for hotel near The Ball Park in Arlington. Did not check to see how close it was and found it 26 miles west of the park.  After that disappointment we start reading reviews.  They were not good.  Prepared for the worst we were very pleased upon our arrival.  They are renovating the property and it is in a great location for food, shopping, and gas. The lobby was clean and the front staff was very helpful. The room was very clean, but there is no fridge or microwave. The bed was very comfortable and the heat/ac worked well. We used both on our stay and had no trouble making the room cooler or hotter. There was a small amount of mold on the ceiling over the shower head, but that was the worst thing we found in the room. The breakfast was very good with lots of choices including a pancake maker. I would stay here again, but not if I wanted to go to a Ranger game.  The drive wasn't bad, but we wanted to be much closer to the park.More</t>
   </si>
   <si>
+    <t>DrMacGyver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r156446244-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1913,6 +2117,9 @@
     <t>We stayed here for 2 nights while visiting the Fort Worth Zoo and Botanic Gardens.  Location is very convenient -- there are tons of stores and restaurants nearby with in walking distance.  We booked on Hotwire and got a reasonable price on a non suite room.  We asked for a refrigerator ($10/night charge) - they informed us that they had just purchased the property and weren't sure if they had any, but would check into it right away.  Very shortly a staff member brought a good sized frig with small freezer to our room.   They also brought us some extra towels.  Hotel is very clean, there is a small business center, and lots of little extra touches in the lobby (cookies, fruit, coffee, etc). The cable was out the first day which was not a huge deal, but they offered to move us to a different room or the cable guys were supposed to be there first thing in the morning.  It was fixed the next day.  They were working on remodeling, but it was not noisy.  Room had queen beds which were comfortable.  Nice large bathroom with lots of counter space and well lit.  Excellent water pressure in shower. Continental breakfast was good.  All of the staff were very friendly and happy to help.Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>David Earl N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r154429972-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1928,6 +2135,9 @@
     <t>Hotel staff was friendly and helpful. We stayed here five nights and never encountered an unfriendly staff member. From the cleaning staff, to the breakfast servers to the people working the front desk, all were friendly, respectful and helpful. The rooms were clean, well kept and reasonably priced.</t>
   </si>
   <si>
+    <t>UltraViolet382</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r153896270-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1955,6 +2165,9 @@
     <t>I stayed here for a period of two weeks for business.  I would recommend this hotel to family and friends.  The staff was pleasant and always very helpful.  The room was a great size and very comfortable.  There was laundry service on-site.  The restaurant had great food at good prices.  Plus, this hotel is in the middle of everything!More</t>
   </si>
   <si>
+    <t>jasecl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r151292370-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1979,6 +2192,9 @@
     <t>I stayed at this hotel for a couple of nights on business.  The room I had was good - it was a good size and the bed was very comfortable.  The room  quiet and dark - I had a good nights sleep on both of the nights I was there.    The shower was good and everything in the room was perfectly clean.The breakfast provided was very good.The location of the hotel is good - the Saltgrass steak restaurant is next door and there is an IHOP across the road.All of the staff were very friendly and helpful.More</t>
   </si>
   <si>
+    <t>Joe D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r145119247-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2006,6 +2222,9 @@
     <t>I have read reviews by other travelers regarding this hotel, and I must tell you that I have beenvisiting the Dallas Fort Worth area for the past 8 plus years, I have stayed at this hotel for the past five plus years, and have never been disappointed. The staff has always been attentive to any and every request I had. I have never had to wait for a room longer than 10 minutes if that long. I expect that a room is clean, that the air, wi fi, and television are in working order. I have never been disappointed at this hotel. I will continue to give them my business. When you are called by your name even after 6 months since your last visit, that is impressive. My deepest thanks to the management and staff at this Holiday Inn Express Hotel &amp; Suites Fort Worth (1-20 )More</t>
   </si>
   <si>
+    <t>qtalitarianrule</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r144851643-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2033,6 +2252,9 @@
     <t>I travel quite a bit and pretty much spend my year at hotels. At this particular location, I pretty much spent the month there. All this for business. If I am in an area, I try to create somewhat of a home base, so having a friendly, professional, knowledgeable, and engaging staff is quite important to me. They definitely made me feel at ease with where I was staying, as well as, give me a sense of having a home away from home. Friendly faces that welcomed me and chatted with me as not just a guest, but as one would do with their group of friends. A standout was the front desk girl, Abbey... Always with a smile and ready to help... The hotel room was always clean, so kudos to the cleaning staff . Alongside all that the staff made the long hotel stay enjoyable, even so much I did not want to leave to go on my further travels. I will always use this location when I am in town.More</t>
   </si>
   <si>
+    <t>Araceli O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r135288411-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2051,6 +2273,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>rhdavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r133009480-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2069,6 +2294,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>joebloggins13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r130518634-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2087,6 +2315,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Michael E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r129834376-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2111,6 +2342,9 @@
     <t>We stayed at this hotel the first week of May, Thursday and Friday. Everything was all right, except that the pricing was confusing. I signed in at what I thought was $153 per night. We decided that that was too much for 4 nights, so we checked out on Sunday morning. The bill came to $310.50, but I saw that the second night was billed at $117.  The rest was city and state tax. I assumed that every night was going to be $153. I understand now that this was spelled out in the fine print of the paper I signed.  Well, it seems to me that if the other nights after the first one were going to be less, the desk agent would have pointed that out, so as to keep us there.  Fine room, excellent beds (maybe 2 queens were too much for the space). Location is off I-20, but walking anywhere is difficult as there are few sidewalks out here. I was also told the the $153 was a special rate. Holiday Inn is too rich for my blood.More</t>
   </si>
   <si>
+    <t>Brian L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r127127134-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2135,6 +2369,9 @@
     <t>Property and location was excellent.  When we checked in we were asked for a card for "incidentals:"  We gave them our debit card not thinking about it.. knowing we wouldn't charge anything here.  The next day our card was declined because Holiday Inn charged a 250.00 hold on the card.  When I called to ask them to release it they told me it was standard operating procedure because we booked our hotel (prepaid) with a 3rd party (hotels.com).They wouldn't release it until we checked out and then it took two days for the money to show up in our account.  250.00 that we had planned on spending on tourism in Dallas.  I will not book another HI Express because of this.  I shouldn't be penalized for prepaying through another website.  What am I going to do go and pawn the TV and the clock radio for cash?More</t>
   </si>
   <si>
+    <t>firetiger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r126277467-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2159,6 +2396,9 @@
     <t>For shopping &amp; dining you couldn't find a better location. Nearly anything you could want within 1-3 minutes drive. Huge Super Target with Starbucks just a few hundred yards away. Bed was at least better than avg comfort and AC worked very good. Now the shower &amp; TV is another story.  Shower had huge pressure but water came out with needle piercing force, &amp; there was no adjustment. A bath is a better option for our room at least . TV was decent enough flat screen, but signal was analog, &amp; not very sharp. This hotel did have the rent before released on DVD &amp; Netflix feature for $15.99 which we might have done if picture quality would have been better. Pool was outdoors only &amp; too cold for March, but it looked well maintained. We did have a pretty good view of the little reservoir next to property. There was a walking path &amp; benches etc.The comp breakfast had a huge selection from eggs, bacon, biscuits, sausage gravy, to cereal &amp; pancakes. There was a staff member there the whole time keeping it maintained, but alas the quality was avg at best. If you want a real breakfast there is an IHOP a minutes walk across parking lot. Overall it was a good stay &amp; noise level was not bad considering you were in the middle of all the retail areas.More</t>
   </si>
   <si>
+    <t>Dan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r126144736-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2174,6 +2414,9 @@
     <t>I travel a lot in my business and This hotel and its staff were a breath of fresh air.  Good clean room and a very friendly staff made for a good stay.Better than average breakfast also.  I will be back to this property any time I am in the area.</t>
   </si>
   <si>
+    <t>todolist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r125991169-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2432,9 @@
     <t>There was no special feature other than location.We got a fare price and got to stay minutes awayfrom our business location.  The staff seemedcourteous and trained.  Everything went withouta hitch.  all in all a very good deal.Roads are changing quickly in this area.Plan for a few minutes delay and look at exactroute in early before getting close... it's complicateduntil the roads are finished.Very quiet; road work was not a problem otherwise.</t>
   </si>
   <si>
+    <t>AggieAbroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r125377224-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2210,6 +2456,9 @@
     <t>We spent two nights at the Holiday Inn Express at the end of January.  The only problem we encountered was finding the hotel.  If you aren't familiar with the area, call the hotel and ask for directions.  Maps from Google, Rand McNally, and MapQuest, don't take into account the massive road work taking place in front of the hotel on I-20 and the loop that becomes 820.   The hotel is very close (walking distance) to Saltgrass Steakhouse and IHOP.  There are many other chain restaurants in the general area.  Our room (2 queen beds) was clean and comfortable.  Check-in/check-out was quick and easy. Housekeeping showed up mid-morning and kept everything in good order.  The complementary breakfast included the usual fare:  cereal, bagels, eggs, sausage, biscuits, cinnamon rolls, fruit, juice, coffee, and milk.  We would return if we needed a room again on the southwest side of Fort Worth.  The beds are REALLY comfy!!!More</t>
   </si>
   <si>
+    <t>Nick007FSU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r121952654-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2228,6 +2477,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>debbiedot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r120191291-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2243,6 +2495,9 @@
     <t>Very easy to find. Smooth check-in. Clean room. Great sleep. What more could you ask for? Would definitely stay here again!</t>
   </si>
   <si>
+    <t>chrisandun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r119961502-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2261,6 +2516,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>pate880</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r118637394-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2279,6 +2537,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>HowzTrxx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r113191975-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2300,6 +2561,9 @@
     <t>I stayed at Holiday Inn Express while on a business trip.  I actually booked through American Airlines and actually got a better rate than booking direct through the hotels website.  The location is great.  It was easy to find, just a couple of miles west of I-35.  There are plenty of restaurants closeby:  Razzoos, The Keg (?), On the Border, IHOP, and Saltgrass is literally steps away.   It is surrounded by department stores (Target, Kohls, etc.,) and Hulen Mall is about one mile down the access road.  The room was very comfortable, and quiet.  I didn't notice any noise at night, except the a/c rattled.  The a/c didn't really cool the room completely and it always seemed a little stuffy, but for the amount of time I spent in the room, it was okay.  Breakfast was the usual coffee, juices, muffins, cereal, and either a waffle or omelet do-it-yourself thing.  Not sure what it actually was.  If you're wanting a huge breakfast with eggs, sausage, busquits, and pancakes, IHOP is about 100 yds away.  If you just want something to grab and go, which is what I wanted, the hotel's complimentary breakfast is just fine.  I would definitely stay in this hotel again if I'm in the area.More</t>
   </si>
   <si>
+    <t>Naomi E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r104461195-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2321,6 +2585,9 @@
     <t>I'm not sure what others were talking about, but we were facing the freeway and couldn't hear a thing. Maybe if their windows were open?Overall, we were pleasantly surprised by the hotel. It seems to be new (or recently renovated) and was very comfortable. The staff was pleasant and helpful. The rooms were clean and the bed was comfortable. Location was great! Only 10 minutes to TCU and near tons of restaurants and shops. About a 45 minute drive to DFW car rental area.Only downside was housecleaning. They don't come until pretty late in the day. Several days we took care of our business commitments in the morning and the room wasn't finished. One day they knocked on the door at about 2:30 PM to clean. Kind of late.The free breakfast was nothing to write home about. Good selection (better than most hotels), but the taste was just, bleh.However, the free wifi, free newspapers, free printer use, etc. made up for it.More</t>
   </si>
   <si>
+    <t>seikesha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r98793020-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2342,6 +2609,9 @@
     <t>From the moment my fiance and I walked through the door it was like we were at home with people we knew.  Tina, the desk clerk, was very personable and hospitable to the point that we felt like we were staying with family.  She was polite and attentive and made us feel as though we were the only people staying at the hotel.  I was pleasantly suprised because I've never received such awesome service at a hotel before!! It's usually just business, give me your money here's your room key type of thing, but not here.  It was just heart warming to be treated like family and not just a paying customer. I recomend this hotel to anyone who crosses its path, I promise you will not forget it. I best way to explain my experience is like going to stay at a close relatives home who you adore and feeling so comfortable and at home and then waking up to a home cooked breakfast, it's just an awesome experience and you really don't find that anymore, especially not at these prices, very inexpensive!! :)More</t>
   </si>
   <si>
+    <t>Silverado62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r97611459-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2357,6 +2627,9 @@
     <t>Stayed over night for a visit to TCU. Received a TCU discount. Everything worked as expected, room was clean and upgraded. We asked for a room further away from I20 and didn't have any problem with freeway noise. The location was convenient and easy to find. We didn't eat out there, but there are several nice restaurants within walking distance, and it's not far from downtown.Free WiFi worked without a hitch and was fast.Not much else to say. We literally just slept overnight then left. Skipped the breakfast but it looked like the standard quick-eat setup at all the hotels in this class.</t>
   </si>
   <si>
+    <t>KKFShreveport_LA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r82844645-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2375,6 +2648,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>GrettaG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r69344821-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2396,6 +2672,9 @@
     <t>The hotel itself was perfect for our extended family. Clean rooms, cozy visiting areas in lobby, an excellent breakfast with an accomodating dining area, as well as a very nice pool and workout room.  The location was well suited as it was close to many restaurants and shops. However; the exceptional quality of this hotel was the warmth, friendliness and helpfulness of the staff. They went above &amp; beyond in their service toward us. Since we were there 4 days, 3 nights we interacted with many of them and it became obvious that the staff as a whole had this warm &amp; caring attitude. Our family had gathered to celebrate a wedding. This was a truly delightful place to stay while doing that.More</t>
   </si>
   <si>
+    <t>Hap78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r69156508-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2414,6 +2693,9 @@
     <t>Our family gathered at the Holiday Inn Express for a wedding to be held at a nearby churacha.  21 members of our family  stayed at the Holiday Inn Hotel, and I believe that every one of them was delighted. The rooms were comfortable and well decorated, The bathrooms were modern and the amenities were well presented. The elevator service was excellent  (I was pleased to note the automatic fire doors on both elevators).The breakfast was outstanding..... especially the cinnamon buns!! Management provided a meeting room for our family to use following the wedding which gave us room to really enjoy visiting with each other. Altogether, the hotel did a wonderful  job for all of us.  We offer thanks to a great staff who made our Ft Worth visit so enjoyable.More</t>
   </si>
   <si>
+    <t>Tigerjacket</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r68913872-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2429,6 +2711,9 @@
     <t>The room was spacious and I was surprised to see a digital TV.  The shower had great water pressure.  The complimentary breakfast was very good - they even have a one-touch pancake machine!</t>
   </si>
   <si>
+    <t>dkroon99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r65645976-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2462,6 +2747,9 @@
     <t>My husband and I actually live in the same area where this hotel is located. We decided to have a stay-cation and stay in a jacuzzi suite. We absolutely loved it. We felt like we were really away from home and work and our responsibilities for the evening. The room was very spacious and the bed incredibly comfortable. Everything was exactly as I expected and more. The next morning, we were greeted at the front desk. They remembered us and asked about our night. This made us feel really special. And the breakfast was delicioius!!! Thanks for a great night!</t>
   </si>
   <si>
+    <t>lottatraveloh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r60921093-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2480,6 +2768,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>mrandmrsturnbow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r56545707-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2501,6 +2792,9 @@
     <t>My wife and I decided to stay the night here on short notice.  We decided to splurge and get a jacuzzi room.  Everything looked fine until we turned on the jacuzzi.  Hair and old hard bits of soap floated to the top.  We drained the tub to find a nice coating of black hair and soap all along the bottom and sides.  Being almost 11pm, the staff didnt have much to offer, but tried over and over again to "Upgrade" us to a executive room, which is a living room and bedroom seperate.   The executive room went for 139.00.  We paid 161.00 for ours.  Also, its only me and my wife, so we dont need a seperate living room and bedroom.  We can drive the 2 hours home for that.  So the solution...they brought us a bucket of cleaning supplies.  Yes, my wife and I are forced to drive 2 hrs home at 11pm dead tired, or clean this mess up.  Wow...More</t>
   </si>
   <si>
+    <t>Bob1225</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r18952172-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2522,6 +2816,9 @@
     <t>We are regular guests at this hotel, having stayed here the past year and a half while working in the Fort Worth area.  We have the option of staying at any hotel of our choosing, but this has been our home away from home.  The hotel is newly renovated and the rooms are wonderfully spacious and comfortable, the bedding is divine, the breakfast bar is immaculate and well stocked, the pool area is fresh and clean and the whirlpool is a great way to relax at the end of the day.  The staff is not only the utmost in professionalism, they are friendly and go above and beyond the call of duty to make our stays good ones.  We have recommended this hotel to friends and have even had family stay here when in the area.  We recommend it highly!More</t>
   </si>
   <si>
+    <t>markchem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r10723603-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2540,6 +2837,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>b8njw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r10042084-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2558,6 +2858,9 @@
     <t>February 2006</t>
   </si>
   <si>
+    <t>daetime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r5381178-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2573,6 +2876,9 @@
     <t>This Holiday Inn Express on City Lake Blvd. room was clean and quiet but smelled musty and the room decor and bedding outdated.  Staff was professional and helpful.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r3644038-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2609,6 +2915,9 @@
     <t>The line level staff of this property are very friendly, especially Mary, who is the breakfast area attendant. Management could use some improvement. Due to employee errors I was over charged by $1,300 (two separate charges on two nights, even though I used the pre-pay option while booking). I reported the issue on Monday morning and was told the manager would be notified as soon as he came in. Monday evening I checked back with the desk as I had not received any updates and was told the manager was not in. Tuesday I noticed the second charge and went to the front desk again. I spoke to the front desk employee who again confirmed the charges should not have occurred and went to the manager’s office (just behind the front desk). I could see the manager, although he wouldn't bother to walk the 15 feet from his desk to the front desk talk to me, instead sending the front desk employee back to tell me simply the charges/holds would stay on my card until I checked out and they should be released.More</t>
   </si>
   <si>
+    <t>Patti M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r577255746-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2627,6 +2936,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>billlackey1942</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r573284893-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2651,6 +2963,9 @@
     <t>This is a nice place nestled far enough away from the freeway to not hear noise.  We have stayed here many times and always had a good experience.  The staff go out of their way to be of help, and breakfast was good.More</t>
   </si>
   <si>
+    <t>hamboneusn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r572981852-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2667,6 +2982,9 @@
   </si>
   <si>
     <t>The service you get at this Holiday Inn is great;  They will bend over backwards to meet your needs.  As for the room it is outstanding.  It is very clean and you can't ask for anymore.  The location of the motel is great.  It is only 5 minute drive to my doctors office.  As for the breakfast you can't beat it. There is nothing I can say is bad about this motel.More</t>
+  </si>
+  <si>
+    <t>LuluLed</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109150-r572762252-Holiday_Inn_Express_Hotel_Suites_Fort_Worth_I_20-Fort_Worth_Texas.html</t>
@@ -3189,43 +3507,47 @@
       <c r="A2" t="n">
         <v>35598</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155675</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3243,56 +3565,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35598</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155676</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -3308,56 +3634,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35598</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155677</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -3375,56 +3705,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35598</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>5315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3436,47 +3770,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35598</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -3493,56 +3831,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35598</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155679</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3560,50 +3902,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35598</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155680</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3621,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35598</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>65754</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -3688,56 +4038,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35598</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>13628</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3753,56 +4107,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35598</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155681</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3814,56 +4172,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35598</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>34062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3875,56 +4237,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35598</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155682</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3936,56 +4302,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35598</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155683</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4001,56 +4371,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35598</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>99647</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4068,56 +4442,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35598</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>7005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4129,56 +4507,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35598</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155680</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4190,56 +4572,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35598</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155684</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4251,56 +4637,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35598</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155685</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4316,56 +4706,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35598</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>22978</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4377,56 +4771,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35598</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>58383</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4438,56 +4836,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35598</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>22635</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4499,56 +4901,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35598</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>5460</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4566,56 +4972,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35598</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>14734</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="J24" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4633,56 +5043,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="X24" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="Y24" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35598</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155686</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4700,56 +5114,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="X25" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="Y25" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35598</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155687</v>
+      </c>
+      <c r="C26" t="s">
+        <v>281</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="J26" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4761,56 +5179,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="X26" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="Y26" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35598</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155688</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4828,56 +5250,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="X27" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="Y27" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35598</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155689</v>
+      </c>
+      <c r="C28" t="s">
+        <v>300</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="J28" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="K28" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4895,56 +5321,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="X28" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Y28" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35598</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155690</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="K29" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4962,56 +5392,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="X29" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="Y29" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35598</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="J30" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="K30" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5029,56 +5463,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="X30" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="Y30" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35598</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>79162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>327</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="J31" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="K31" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="L31" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -5096,56 +5534,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="X31" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35598</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>21901</v>
+      </c>
+      <c r="C32" t="s">
+        <v>336</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="K32" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="L32" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -5161,56 +5603,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="X32" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="Y32" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35598</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>6260</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="J33" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="K33" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="L33" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5222,47 +5668,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="X33" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="Y33" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35598</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>28300</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="L34" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -5279,56 +5729,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="X34" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35598</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155691</v>
+      </c>
+      <c r="C35" t="s">
+        <v>363</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="K35" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="L35" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="O35" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5340,56 +5794,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="X35" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="Y35" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35598</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155692</v>
+      </c>
+      <c r="C36" t="s">
+        <v>373</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5401,56 +5859,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="X36" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="Y36" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35598</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>17471</v>
+      </c>
+      <c r="C37" t="s">
+        <v>383</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="J37" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="O37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5468,56 +5930,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="X37" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="Y37" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35598</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155693</v>
+      </c>
+      <c r="C38" t="s">
+        <v>393</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="J38" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="K38" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="L38" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5533,47 +5999,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="X38" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="Y38" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35598</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>22978</v>
+      </c>
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="J39" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -5590,56 +6060,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="X39" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="Y39" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35598</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155694</v>
+      </c>
+      <c r="C40" t="s">
+        <v>408</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="L40" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5651,56 +6125,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="X40" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="Y40" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35598</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155695</v>
+      </c>
+      <c r="C41" t="s">
+        <v>418</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="J41" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="K41" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="L41" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5716,56 +6194,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="X41" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="Y41" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35598</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>48144</v>
+      </c>
+      <c r="C42" t="s">
+        <v>428</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="J42" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="K42" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="L42" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="O42" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5777,56 +6259,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="X42" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="Y42" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35598</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155696</v>
+      </c>
+      <c r="C43" t="s">
+        <v>437</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="J43" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="L43" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5842,56 +6328,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="X43" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="Y43" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35598</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155697</v>
+      </c>
+      <c r="C44" t="s">
+        <v>444</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="J44" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="K44" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="L44" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5907,56 +6397,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="X44" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="Y44" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35598</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155698</v>
+      </c>
+      <c r="C45" t="s">
+        <v>451</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="J45" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="K45" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="L45" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5974,56 +6468,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="X45" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="Y45" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35598</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124365</v>
+      </c>
+      <c r="C46" t="s">
+        <v>459</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="J46" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="K46" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="L46" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="O46" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -6043,50 +6541,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35598</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>894</v>
+      </c>
+      <c r="C47" t="s">
+        <v>467</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="J47" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="K47" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="L47" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6098,56 +6600,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="X47" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="Y47" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35598</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155699</v>
+      </c>
+      <c r="C48" t="s">
+        <v>477</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="J48" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="K48" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="L48" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="O48" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6165,50 +6671,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35598</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>2622</v>
+      </c>
+      <c r="C49" t="s">
+        <v>484</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="J49" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="K49" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="L49" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O49" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6222,56 +6732,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="X49" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="Y49" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35598</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C50" t="s">
+        <v>493</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="J50" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="K50" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="L50" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="O50" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6289,50 +6803,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35598</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155701</v>
+      </c>
+      <c r="C51" t="s">
+        <v>500</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="J51" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="K51" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="L51" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6346,50 +6864,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35598</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155702</v>
+      </c>
+      <c r="C52" t="s">
+        <v>506</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="J52" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="K52" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="L52" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6403,50 +6925,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35598</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>7524</v>
+      </c>
+      <c r="C53" t="s">
+        <v>512</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="J53" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="K53" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="L53" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6464,56 +6990,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="X53" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="Y53" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35598</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>48607</v>
+      </c>
+      <c r="C54" t="s">
+        <v>522</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="J54" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="K54" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="L54" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6531,56 +7061,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="X54" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="Y54" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35598</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155703</v>
+      </c>
+      <c r="C55" t="s">
+        <v>531</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="J55" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="K55" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="L55" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6596,56 +7130,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="X55" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="Y55" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35598</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155704</v>
+      </c>
+      <c r="C56" t="s">
+        <v>541</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="J56" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="L56" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6657,56 +7195,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="X56" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="Y56" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35598</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155705</v>
+      </c>
+      <c r="C57" t="s">
+        <v>551</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="J57" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="K57" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="L57" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6728,56 +7270,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="X57" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="Y57" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35598</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155706</v>
+      </c>
+      <c r="C58" t="s">
+        <v>561</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="J58" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="K58" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="L58" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="O58" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6799,47 +7345,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="X58" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="Y58" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35598</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155707</v>
+      </c>
+      <c r="C59" t="s">
+        <v>571</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="J59" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="K59" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="L59" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
@@ -6856,56 +7406,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="X59" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="Y59" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35598</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>15516</v>
+      </c>
+      <c r="C60" t="s">
+        <v>580</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J60" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="K60" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="L60" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6927,56 +7481,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="X60" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="Y60" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35598</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155708</v>
+      </c>
+      <c r="C61" t="s">
+        <v>590</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="J61" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="K61" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="L61" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6998,47 +7556,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="X61" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="Y61" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>35598</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155709</v>
+      </c>
+      <c r="C62" t="s">
+        <v>600</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="J62" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="K62" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="L62" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -7065,56 +7627,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="X62" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="Y62" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>35598</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155710</v>
+      </c>
+      <c r="C63" t="s">
+        <v>609</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="J63" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="K63" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="L63" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="O63" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -7136,56 +7702,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
       <c r="X63" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="Y63" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>35598</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>52215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>619</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>560</v>
+        <v>621</v>
       </c>
       <c r="J64" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="K64" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="L64" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7207,47 +7777,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="X64" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
       <c r="Y64" t="s">
-        <v>566</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>35598</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155711</v>
+      </c>
+      <c r="C65" t="s">
+        <v>628</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="J65" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="K65" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="L65" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -7274,47 +7848,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="X65" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="Y65" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>35598</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155712</v>
+      </c>
+      <c r="C66" t="s">
+        <v>637</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="J66" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="K66" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="L66" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -7341,56 +7919,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="X66" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="Y66" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>35598</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155713</v>
+      </c>
+      <c r="C67" t="s">
+        <v>646</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
       <c r="J67" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="K67" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
       <c r="L67" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -7412,56 +7994,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="X67" t="s">
-        <v>590</v>
+        <v>654</v>
       </c>
       <c r="Y67" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>35598</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>15342</v>
+      </c>
+      <c r="C68" t="s">
+        <v>656</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>592</v>
+        <v>657</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>593</v>
+        <v>658</v>
       </c>
       <c r="J68" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="K68" t="s">
-        <v>595</v>
+        <v>660</v>
       </c>
       <c r="L68" t="s">
-        <v>596</v>
+        <v>661</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7483,56 +8069,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>597</v>
+        <v>662</v>
       </c>
       <c r="X68" t="s">
-        <v>598</v>
+        <v>663</v>
       </c>
       <c r="Y68" t="s">
-        <v>599</v>
+        <v>664</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>35598</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155714</v>
+      </c>
+      <c r="C69" t="s">
+        <v>665</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="J69" t="s">
-        <v>602</v>
+        <v>668</v>
       </c>
       <c r="K69" t="s">
-        <v>603</v>
+        <v>669</v>
       </c>
       <c r="L69" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7554,56 +8144,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="X69" t="s">
-        <v>606</v>
+        <v>672</v>
       </c>
       <c r="Y69" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>35598</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>4074</v>
+      </c>
+      <c r="C70" t="s">
+        <v>674</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>608</v>
+        <v>675</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="J70" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
       <c r="K70" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="L70" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7627,50 +8221,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>35598</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155715</v>
+      </c>
+      <c r="C71" t="s">
+        <v>681</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>614</v>
+        <v>682</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>615</v>
+        <v>683</v>
       </c>
       <c r="J71" t="s">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="K71" t="s">
-        <v>617</v>
+        <v>685</v>
       </c>
       <c r="L71" t="s">
-        <v>618</v>
+        <v>686</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7694,50 +8292,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>620</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>35598</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155716</v>
+      </c>
+      <c r="C72" t="s">
+        <v>689</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>621</v>
+        <v>690</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>622</v>
+        <v>691</v>
       </c>
       <c r="J72" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
       <c r="K72" t="s">
-        <v>624</v>
+        <v>693</v>
       </c>
       <c r="L72" t="s">
-        <v>625</v>
+        <v>694</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7761,50 +8363,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>625</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>35598</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155717</v>
+      </c>
+      <c r="C73" t="s">
+        <v>695</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="J73" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="K73" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
       <c r="L73" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>631</v>
+        <v>701</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7826,56 +8432,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>632</v>
+        <v>702</v>
       </c>
       <c r="X73" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="Y73" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>35598</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155718</v>
+      </c>
+      <c r="C74" t="s">
+        <v>705</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="J74" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="K74" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="L74" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>639</v>
+        <v>710</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7897,56 +8507,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="X74" t="s">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="Y74" t="s">
-        <v>642</v>
+        <v>713</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>35598</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2517</v>
+      </c>
+      <c r="C75" t="s">
+        <v>714</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>644</v>
+        <v>716</v>
       </c>
       <c r="J75" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
       <c r="K75" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
       <c r="L75" t="s">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>648</v>
+        <v>720</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7968,56 +8582,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>649</v>
+        <v>721</v>
       </c>
       <c r="X75" t="s">
-        <v>650</v>
+        <v>722</v>
       </c>
       <c r="Y75" t="s">
-        <v>651</v>
+        <v>723</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>35598</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155719</v>
+      </c>
+      <c r="C76" t="s">
+        <v>724</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>652</v>
+        <v>725</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="J76" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
       <c r="K76" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
       <c r="L76" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>657</v>
+        <v>730</v>
       </c>
       <c r="O76" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -8039,56 +8657,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="X76" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="Y76" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>35598</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155720</v>
+      </c>
+      <c r="C77" t="s">
+        <v>734</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="J77" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
       <c r="K77" t="s">
-        <v>664</v>
+        <v>738</v>
       </c>
       <c r="L77" t="s">
-        <v>665</v>
+        <v>739</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8112,50 +8734,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>665</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>35598</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155721</v>
+      </c>
+      <c r="C78" t="s">
+        <v>741</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="J78" t="s">
-        <v>669</v>
+        <v>744</v>
       </c>
       <c r="K78" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
       <c r="L78" t="s">
-        <v>671</v>
+        <v>746</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>672</v>
+        <v>747</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8169,50 +8795,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>671</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>35598</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>155722</v>
+      </c>
+      <c r="C79" t="s">
+        <v>748</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="J79" t="s">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="K79" t="s">
-        <v>676</v>
+        <v>752</v>
       </c>
       <c r="L79" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>678</v>
+        <v>754</v>
       </c>
       <c r="O79" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8236,50 +8866,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>35598</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>8101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>755</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>680</v>
+        <v>757</v>
       </c>
       <c r="J80" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
       <c r="K80" t="s">
-        <v>682</v>
+        <v>759</v>
       </c>
       <c r="L80" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>678</v>
+        <v>754</v>
       </c>
       <c r="O80" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -8301,56 +8935,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="X80" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="Y80" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>35598</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>40177</v>
+      </c>
+      <c r="C81" t="s">
+        <v>764</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>687</v>
+        <v>765</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>688</v>
+        <v>766</v>
       </c>
       <c r="J81" t="s">
-        <v>689</v>
+        <v>767</v>
       </c>
       <c r="K81" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="L81" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8372,47 +9010,51 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>692</v>
+        <v>770</v>
       </c>
       <c r="X81" t="s">
-        <v>693</v>
+        <v>771</v>
       </c>
       <c r="Y81" t="s">
-        <v>694</v>
+        <v>772</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>35598</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136644</v>
+      </c>
+      <c r="C82" t="s">
+        <v>773</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>695</v>
+        <v>774</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>696</v>
+        <v>775</v>
       </c>
       <c r="J82" t="s">
-        <v>697</v>
+        <v>776</v>
       </c>
       <c r="K82" t="s">
-        <v>698</v>
+        <v>777</v>
       </c>
       <c r="L82" t="s">
-        <v>699</v>
+        <v>778</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -8439,56 +9081,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="X82" t="s">
-        <v>701</v>
+        <v>780</v>
       </c>
       <c r="Y82" t="s">
-        <v>702</v>
+        <v>781</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>35598</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C83" t="s">
+        <v>782</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>703</v>
+        <v>783</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>704</v>
+        <v>784</v>
       </c>
       <c r="J83" t="s">
-        <v>705</v>
+        <v>785</v>
       </c>
       <c r="K83" t="s">
-        <v>706</v>
+        <v>786</v>
       </c>
       <c r="L83" t="s">
-        <v>707</v>
+        <v>787</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8512,50 +9158,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>707</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>35598</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155723</v>
+      </c>
+      <c r="C84" t="s">
+        <v>788</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>708</v>
+        <v>789</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>709</v>
+        <v>790</v>
       </c>
       <c r="J84" t="s">
-        <v>710</v>
+        <v>791</v>
       </c>
       <c r="K84" t="s">
-        <v>711</v>
+        <v>792</v>
       </c>
       <c r="L84" t="s">
-        <v>712</v>
+        <v>793</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8579,50 +9229,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>712</v>
+        <v>793</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>35598</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>155724</v>
+      </c>
+      <c r="C85" t="s">
+        <v>794</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="J85" t="s">
-        <v>715</v>
+        <v>797</v>
       </c>
       <c r="K85" t="s">
-        <v>716</v>
+        <v>798</v>
       </c>
       <c r="L85" t="s">
-        <v>717</v>
+        <v>799</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="O85" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8646,50 +9300,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>719</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>35598</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>155725</v>
+      </c>
+      <c r="C86" t="s">
+        <v>802</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>720</v>
+        <v>803</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>721</v>
+        <v>804</v>
       </c>
       <c r="J86" t="s">
-        <v>722</v>
+        <v>805</v>
       </c>
       <c r="K86" t="s">
-        <v>723</v>
+        <v>806</v>
       </c>
       <c r="L86" t="s">
-        <v>724</v>
+        <v>807</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8713,50 +9371,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>724</v>
+        <v>807</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>35598</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>155726</v>
+      </c>
+      <c r="C87" t="s">
+        <v>809</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>726</v>
+        <v>810</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>727</v>
+        <v>811</v>
       </c>
       <c r="J87" t="s">
-        <v>728</v>
+        <v>812</v>
       </c>
       <c r="K87" t="s">
-        <v>729</v>
+        <v>813</v>
       </c>
       <c r="L87" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="O87" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8780,50 +9442,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>35598</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155727</v>
+      </c>
+      <c r="C88" t="s">
+        <v>815</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>732</v>
+        <v>817</v>
       </c>
       <c r="J88" t="s">
-        <v>733</v>
+        <v>818</v>
       </c>
       <c r="K88" t="s">
-        <v>734</v>
+        <v>819</v>
       </c>
       <c r="L88" t="s">
-        <v>735</v>
+        <v>820</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8847,50 +9513,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>735</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>35598</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>155728</v>
+      </c>
+      <c r="C89" t="s">
+        <v>822</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>738</v>
+        <v>824</v>
       </c>
       <c r="J89" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
       <c r="K89" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="L89" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>742</v>
+        <v>828</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8914,50 +9584,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>35598</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>155729</v>
+      </c>
+      <c r="C90" t="s">
+        <v>829</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>743</v>
+        <v>830</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>744</v>
+        <v>831</v>
       </c>
       <c r="J90" t="s">
-        <v>745</v>
+        <v>832</v>
       </c>
       <c r="K90" t="s">
-        <v>746</v>
+        <v>833</v>
       </c>
       <c r="L90" t="s">
-        <v>747</v>
+        <v>834</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>748</v>
+        <v>835</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8981,50 +9655,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>35598</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>155730</v>
+      </c>
+      <c r="C91" t="s">
+        <v>837</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>750</v>
+        <v>838</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>751</v>
+        <v>839</v>
       </c>
       <c r="J91" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
       <c r="K91" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="L91" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
       <c r="O91" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9048,50 +9726,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>35598</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C92" t="s">
+        <v>845</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>758</v>
+        <v>847</v>
       </c>
       <c r="J92" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="K92" t="s">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="L92" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="O92" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9115,50 +9797,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>35598</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>109925</v>
+      </c>
+      <c r="C93" t="s">
+        <v>853</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>764</v>
+        <v>854</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="J93" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="K93" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="L93" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9182,50 +9868,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>35598</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>155732</v>
+      </c>
+      <c r="C94" t="s">
+        <v>859</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>770</v>
+        <v>861</v>
       </c>
       <c r="J94" t="s">
-        <v>771</v>
+        <v>862</v>
       </c>
       <c r="K94" t="s">
-        <v>772</v>
+        <v>863</v>
       </c>
       <c r="L94" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="O94" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9249,50 +9939,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>35598</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>155733</v>
+      </c>
+      <c r="C95" t="s">
+        <v>866</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>776</v>
+        <v>868</v>
       </c>
       <c r="J95" t="s">
-        <v>777</v>
+        <v>869</v>
       </c>
       <c r="K95" t="s">
-        <v>778</v>
+        <v>870</v>
       </c>
       <c r="L95" t="s">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9316,50 +10010,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>781</v>
+        <v>873</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>35598</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>155734</v>
+      </c>
+      <c r="C96" t="s">
+        <v>874</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>783</v>
+        <v>876</v>
       </c>
       <c r="J96" t="s">
-        <v>784</v>
+        <v>877</v>
       </c>
       <c r="K96" t="s">
-        <v>785</v>
+        <v>878</v>
       </c>
       <c r="L96" t="s">
-        <v>786</v>
+        <v>879</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9383,50 +10081,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>787</v>
+        <v>880</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>35598</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>155735</v>
+      </c>
+      <c r="C97" t="s">
+        <v>881</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="J97" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="K97" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
       <c r="L97" t="s">
-        <v>792</v>
+        <v>886</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="O97" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9450,50 +10152,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>792</v>
+        <v>886</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>35598</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>36513</v>
+      </c>
+      <c r="C98" t="s">
+        <v>887</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>793</v>
+        <v>888</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="J98" t="s">
-        <v>795</v>
+        <v>890</v>
       </c>
       <c r="K98" t="s">
-        <v>796</v>
+        <v>891</v>
       </c>
       <c r="L98" t="s">
-        <v>797</v>
+        <v>892</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="O98" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9517,7 +10223,7 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>797</v>
+        <v>892</v>
       </c>
     </row>
     <row r="99">
@@ -9530,37 +10236,37 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>800</v>
+        <v>895</v>
       </c>
       <c r="J99" t="s">
-        <v>801</v>
+        <v>896</v>
       </c>
       <c r="K99" t="s">
-        <v>802</v>
+        <v>897</v>
       </c>
       <c r="L99" t="s">
-        <v>803</v>
+        <v>898</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="O99" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9584,50 +10290,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>803</v>
+        <v>898</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>35598</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>155736</v>
+      </c>
+      <c r="C100" t="s">
+        <v>899</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>804</v>
+        <v>900</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>805</v>
+        <v>901</v>
       </c>
       <c r="J100" t="s">
-        <v>806</v>
+        <v>902</v>
       </c>
       <c r="K100" t="s">
-        <v>807</v>
+        <v>903</v>
       </c>
       <c r="L100" t="s">
-        <v>808</v>
+        <v>904</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>809</v>
+        <v>905</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9651,50 +10361,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>808</v>
+        <v>904</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>35598</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>155737</v>
+      </c>
+      <c r="C101" t="s">
+        <v>906</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>810</v>
+        <v>907</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>811</v>
+        <v>908</v>
       </c>
       <c r="J101" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="K101" t="s">
-        <v>813</v>
+        <v>910</v>
       </c>
       <c r="L101" t="s">
-        <v>814</v>
+        <v>911</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>815</v>
+        <v>912</v>
       </c>
       <c r="O101" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9718,50 +10432,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>816</v>
+        <v>913</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>35598</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>155738</v>
+      </c>
+      <c r="C102" t="s">
+        <v>914</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>817</v>
+        <v>915</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>818</v>
+        <v>916</v>
       </c>
       <c r="J102" t="s">
-        <v>819</v>
+        <v>917</v>
       </c>
       <c r="K102" t="s">
-        <v>820</v>
+        <v>918</v>
       </c>
       <c r="L102" t="s">
-        <v>821</v>
+        <v>919</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>822</v>
+        <v>920</v>
       </c>
       <c r="O102" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9785,50 +10503,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>823</v>
+        <v>921</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>35598</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>155739</v>
+      </c>
+      <c r="C103" t="s">
+        <v>922</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>824</v>
+        <v>923</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>825</v>
+        <v>924</v>
       </c>
       <c r="J103" t="s">
-        <v>826</v>
+        <v>925</v>
       </c>
       <c r="K103" t="s">
-        <v>827</v>
+        <v>926</v>
       </c>
       <c r="L103" t="s">
-        <v>828</v>
+        <v>927</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -9852,50 +10574,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>828</v>
+        <v>927</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>35598</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>155740</v>
+      </c>
+      <c r="C104" t="s">
+        <v>929</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>831</v>
+        <v>931</v>
       </c>
       <c r="J104" t="s">
-        <v>832</v>
+        <v>932</v>
       </c>
       <c r="K104" t="s">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="L104" t="s">
-        <v>834</v>
+        <v>934</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>835</v>
+        <v>935</v>
       </c>
       <c r="O104" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9919,41 +10645,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>834</v>
+        <v>934</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>35598</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>155741</v>
+      </c>
+      <c r="C105" t="s">
+        <v>936</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>836</v>
+        <v>937</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>837</v>
+        <v>938</v>
       </c>
       <c r="J105" t="s">
-        <v>838</v>
+        <v>939</v>
       </c>
       <c r="K105" t="s">
-        <v>839</v>
+        <v>940</v>
       </c>
       <c r="L105" t="s">
-        <v>840</v>
+        <v>941</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
@@ -9972,41 +10702,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>840</v>
+        <v>941</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>35598</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>942</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>841</v>
+        <v>943</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>842</v>
+        <v>944</v>
       </c>
       <c r="J106" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="K106" t="s">
-        <v>844</v>
+        <v>946</v>
       </c>
       <c r="L106" t="s">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
@@ -10033,50 +10767,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>845</v>
+        <v>947</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>35598</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>942</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>846</v>
+        <v>948</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>847</v>
+        <v>949</v>
       </c>
       <c r="J107" t="s">
-        <v>848</v>
+        <v>950</v>
       </c>
       <c r="K107" t="s">
-        <v>849</v>
+        <v>951</v>
       </c>
       <c r="L107" t="s">
-        <v>850</v>
+        <v>952</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
       <c r="O107" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="s"/>
@@ -10090,50 +10828,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>852</v>
+        <v>954</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>35598</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>35102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>955</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>853</v>
+        <v>956</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>854</v>
+        <v>957</v>
       </c>
       <c r="J108" t="s">
-        <v>855</v>
+        <v>958</v>
       </c>
       <c r="K108" t="s">
-        <v>856</v>
+        <v>959</v>
       </c>
       <c r="L108" t="s">
-        <v>857</v>
+        <v>960</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>858</v>
+        <v>961</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s"/>
@@ -10147,50 +10889,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>857</v>
+        <v>960</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>35598</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>155742</v>
+      </c>
+      <c r="C109" t="s">
+        <v>962</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>859</v>
+        <v>963</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>860</v>
+        <v>964</v>
       </c>
       <c r="J109" t="s">
-        <v>861</v>
+        <v>965</v>
       </c>
       <c r="K109" t="s">
-        <v>862</v>
+        <v>966</v>
       </c>
       <c r="L109" t="s">
-        <v>863</v>
+        <v>967</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>858</v>
+        <v>961</v>
       </c>
       <c r="O109" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P109" t="s"/>
       <c r="Q109" t="s"/>
@@ -10202,56 +10948,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>864</v>
+        <v>968</v>
       </c>
       <c r="X109" t="s">
-        <v>865</v>
+        <v>969</v>
       </c>
       <c r="Y109" t="s">
-        <v>866</v>
+        <v>970</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>35598</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>155743</v>
+      </c>
+      <c r="C110" t="s">
+        <v>971</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>867</v>
+        <v>972</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>868</v>
+        <v>973</v>
       </c>
       <c r="J110" t="s">
-        <v>869</v>
+        <v>974</v>
       </c>
       <c r="K110" t="s">
-        <v>870</v>
+        <v>975</v>
       </c>
       <c r="L110" t="s">
-        <v>871</v>
+        <v>976</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>858</v>
+        <v>961</v>
       </c>
       <c r="O110" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P110" t="s"/>
       <c r="Q110" t="s"/>
@@ -10263,56 +11013,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>864</v>
+        <v>968</v>
       </c>
       <c r="X110" t="s">
-        <v>865</v>
+        <v>969</v>
       </c>
       <c r="Y110" t="s">
-        <v>872</v>
+        <v>977</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>35598</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>155744</v>
+      </c>
+      <c r="C111" t="s">
+        <v>978</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>873</v>
+        <v>979</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>874</v>
+        <v>980</v>
       </c>
       <c r="J111" t="s">
-        <v>875</v>
+        <v>981</v>
       </c>
       <c r="K111" t="s">
-        <v>876</v>
+        <v>982</v>
       </c>
       <c r="L111" t="s">
-        <v>877</v>
+        <v>983</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>858</v>
+        <v>961</v>
       </c>
       <c r="O111" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P111" t="s"/>
       <c r="Q111" t="s"/>
@@ -10324,13 +11078,13 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>864</v>
+        <v>968</v>
       </c>
       <c r="X111" t="s">
-        <v>865</v>
+        <v>969</v>
       </c>
       <c r="Y111" t="s">
-        <v>878</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
